--- a/Generatore/tabella.xlsx
+++ b/Generatore/tabella.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
   <si>
     <t>PercFerr</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="B41">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1851,8 +1851,8 @@
       <c r="F51" s="1">
         <v>852</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.04</v>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>11</v>

--- a/Generatore/tabella.xlsx
+++ b/Generatore/tabella.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
   <si>
     <t>PercFerr</t>
   </si>
@@ -104,9 +104,6 @@
     <t>29s</t>
   </si>
   <si>
-    <t>735s</t>
-  </si>
-  <si>
     <t>1042,5Mb</t>
   </si>
   <si>
@@ -161,42 +158,6 @@
     <t>722,5Mb</t>
   </si>
   <si>
-    <t>3066s</t>
-  </si>
-  <si>
-    <t>1176,4Mb</t>
-  </si>
-  <si>
-    <t>2852s</t>
-  </si>
-  <si>
-    <t>1176,3Mb</t>
-  </si>
-  <si>
-    <t>2636s</t>
-  </si>
-  <si>
-    <t>524s</t>
-  </si>
-  <si>
-    <t>915,5Mb</t>
-  </si>
-  <si>
-    <t>5856s</t>
-  </si>
-  <si>
-    <t>1517,2Mb</t>
-  </si>
-  <si>
-    <t>4502s</t>
-  </si>
-  <si>
-    <t>1517,3Mb</t>
-  </si>
-  <si>
-    <t>4200s</t>
-  </si>
-  <si>
     <t>0,11s</t>
   </si>
   <si>
@@ -228,13 +189,49 @@
   </si>
   <si>
     <t>31s</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>725,7Mb</t>
+  </si>
+  <si>
+    <t>684,6Mb</t>
+  </si>
+  <si>
+    <t>704,3Mb</t>
+  </si>
+  <si>
+    <t>704,3 Mb</t>
+  </si>
+  <si>
+    <t>704.3Mb</t>
+  </si>
+  <si>
+    <t>883,9Mb</t>
+  </si>
+  <si>
+    <t>795,4Mb</t>
+  </si>
+  <si>
+    <t>822,2Mb</t>
+  </si>
+  <si>
+    <t>859.4 Mb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +278,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,12 +293,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -299,12 +309,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valore non valido" xfId="3" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +619,7 @@
     <col min="6" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -620,8 +644,11 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -646,8 +673,11 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -672,8 +702,11 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -698,8 +731,11 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -724,8 +760,11 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -750,8 +789,11 @@
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -776,8 +818,11 @@
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -802,8 +847,11 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -828,8 +876,11 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -854,8 +905,11 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -880,8 +934,11 @@
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -906,8 +963,11 @@
       <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -932,8 +992,11 @@
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -958,8 +1021,11 @@
       <c r="H14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
@@ -984,8 +1050,11 @@
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1002,16 +1071,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>59549</v>
+        <v>60239</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1028,10 +1100,13 @@
         <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1047,11 +1122,20 @@
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>52563</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1068,10 +1152,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1087,11 +1174,20 @@
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>53101</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1108,10 +1204,13 @@
         <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1127,11 +1226,20 @@
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>53283</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1148,10 +1256,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1176,8 +1287,11 @@
       <c r="H24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1197,13 +1311,16 @@
         <v>874</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1226,10 +1343,13 @@
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1249,13 +1369,16 @@
         <v>740</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1278,10 +1401,13 @@
         <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1301,13 +1427,16 @@
         <v>740</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50</v>
       </c>
@@ -1327,13 +1456,16 @@
         <v>15140</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
@@ -1358,8 +1490,11 @@
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50</v>
       </c>
@@ -1379,13 +1514,16 @@
         <v>13620</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1405,13 +1543,16 @@
         <v>13620</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -1431,13 +1572,16 @@
         <v>13571</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -1457,13 +1601,16 @@
         <v>13571</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50</v>
       </c>
@@ -1483,13 +1630,16 @@
         <v>13571</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -1509,14 +1659,17 @@
         <v>13571</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>100</v>
       </c>
       <c r="B38">
@@ -1535,13 +1688,16 @@
         <v>56257</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -1558,13 +1714,16 @@
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>100</v>
       </c>
@@ -1581,16 +1740,19 @@
         <v>3</v>
       </c>
       <c r="F40" s="1">
-        <v>52391</v>
+        <v>52700</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="I40" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>100</v>
       </c>
@@ -1607,10 +1769,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -1627,16 +1792,19 @@
         <v>3</v>
       </c>
       <c r="F42" s="1">
-        <v>52391</v>
+        <v>52925</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>100</v>
       </c>
@@ -1653,10 +1821,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>100</v>
       </c>
@@ -1673,16 +1844,19 @@
         <v>3</v>
       </c>
       <c r="F44" s="1">
-        <v>52391</v>
+        <v>52925</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1176.4000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>100</v>
       </c>
@@ -1699,10 +1873,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1725,10 +1902,13 @@
         <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1748,13 +1928,16 @@
         <v>1303</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1777,10 +1960,13 @@
         <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1800,13 +1986,16 @@
         <v>852</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1829,10 +2018,13 @@
         <v>9</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1852,13 +2044,16 @@
         <v>852</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1878,13 +2073,16 @@
         <v>15439</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1904,13 +2102,16 @@
         <v>15439</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1930,13 +2131,16 @@
         <v>14535</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -1956,13 +2160,16 @@
         <v>14535</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50</v>
       </c>
@@ -1982,13 +2189,16 @@
         <v>14515</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2008,13 +2218,16 @@
         <v>14515</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -2034,13 +2247,16 @@
         <v>14515</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50</v>
       </c>
@@ -2060,14 +2276,17 @@
         <v>14515</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>100</v>
       </c>
       <c r="B60">
@@ -2083,16 +2302,19 @@
         <v>3</v>
       </c>
       <c r="F60" s="1">
-        <v>49034</v>
+        <v>50915</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="I60" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>100</v>
       </c>
@@ -2109,10 +2331,13 @@
         <v>8</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>100</v>
       </c>
@@ -2128,17 +2353,20 @@
       <c r="E62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="5">
-        <v>45577</v>
+      <c r="F62" s="1">
+        <v>45635</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I62" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>100</v>
       </c>
@@ -2155,10 +2383,13 @@
         <v>8</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100</v>
       </c>
@@ -2174,17 +2405,20 @@
       <c r="E64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="5">
-        <v>45577</v>
+      <c r="F64" s="1">
+        <v>45635</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I64" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>100</v>
       </c>
@@ -2201,10 +2435,13 @@
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>100</v>
       </c>
@@ -2220,17 +2457,20 @@
       <c r="E66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="5">
-        <v>45577</v>
+      <c r="F66" s="1">
+        <v>45635</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I66" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>100</v>
       </c>
@@ -2247,7 +2487,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Generatore/tabella.xlsx
+++ b/Generatore/tabella.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
   <si>
     <t>PercFerr</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>859.4 Mb</t>
+  </si>
+  <si>
+    <t>LowerBound</t>
   </si>
 </sst>
 </file>
@@ -229,9 +232,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +259,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,22 +310,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
@@ -323,7 +330,19 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
@@ -607,19 +626,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J67" sqref="A2:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="6" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -639,1859 +658,2086 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>0.1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
         <v>1407</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3">
+        <v>1407</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>0.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
         <v>1407</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3">
+        <v>1407</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>0.1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
         <v>1033</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3">
+        <v>1033</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>0.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
         <v>1033</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="3">
+        <v>1033</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>0.1</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
         <v>1014</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3">
+        <v>1014</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>0.1</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
         <v>1014</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3">
+        <v>1014</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="10">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>17459</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3">
+        <v>17459</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>50</v>
+      </c>
+      <c r="B9" s="10">
         <v>0.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D9" s="10">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
         <v>17459</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3">
+        <v>17459</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10">
         <v>0.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="10">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>14784</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3">
+        <v>14784</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>50</v>
+      </c>
+      <c r="B11" s="10">
         <v>0.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
         <v>14784</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3">
+        <v>14784</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12">
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10">
         <v>0.1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D12" s="10">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>14734</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3">
+        <v>14734</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10">
         <v>0.1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="10">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
         <v>14734</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14">
+      <c r="G13" s="3">
+        <v>14734</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
         <v>0.1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="10">
+        <v>25</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>14734</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3">
+        <v>14734</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>50</v>
-      </c>
-      <c r="B15">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>50</v>
+      </c>
+      <c r="B15" s="10">
         <v>0.1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D15" s="10">
+        <v>25</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>14734</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="G15" s="3">
+        <v>14734</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>100</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>0.1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="D16" s="10">
+        <v>50</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
         <v>60239</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3">
+        <v>59167</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>100</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>0.1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="10">
+        <v>50</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>100</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>0.1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="10">
+        <v>50</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>52563</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3">
+        <v>50858</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="8">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>100</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>0.1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="10">
+        <v>50</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>100</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>0.1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>12</v>
       </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="10">
+        <v>50</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>53101</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3">
+        <v>50867</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>100</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>0.1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>12</v>
       </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="10">
+        <v>50</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>100</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>0.1</v>
       </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="C22" s="10">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>53283</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3">
+        <v>50867</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>100</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>0.1</v>
       </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="C23" s="10">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>0.5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>874</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3">
+        <v>874</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>10</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>0.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
         <v>874</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3">
+        <v>874</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>10</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>0.5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>5</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
         <v>740</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3">
+        <v>740</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <v>0.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>5</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
         <v>740</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3">
+        <v>740</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <v>0.5</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
         <v>5</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
         <v>740</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3">
+        <v>740</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <v>0.5</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10">
         <v>5</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>740</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3">
+        <v>740</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>50</v>
-      </c>
-      <c r="B30">
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>50</v>
+      </c>
+      <c r="B30" s="10">
         <v>0.5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D30" s="10">
+        <v>25</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
         <v>15140</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3">
+        <v>15140</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>50</v>
-      </c>
-      <c r="B31">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>50</v>
+      </c>
+      <c r="B31" s="10">
         <v>0.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="D31" s="10">
+        <v>25</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3">
         <v>15140</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3">
+        <v>15140</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>50</v>
-      </c>
-      <c r="B32">
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>50</v>
+      </c>
+      <c r="B32" s="10">
         <v>0.5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="10">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="D32" s="10">
+        <v>25</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>13620</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3">
+        <v>13620</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50</v>
-      </c>
-      <c r="B33">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>50</v>
+      </c>
+      <c r="B33" s="10">
         <v>0.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="D33" s="10">
+        <v>25</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
         <v>13620</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3">
+        <v>13620</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>50</v>
-      </c>
-      <c r="B34">
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>50</v>
+      </c>
+      <c r="B34" s="10">
         <v>0.5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="D34" s="10">
+        <v>25</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
         <v>13571</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3">
+        <v>13571</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>50</v>
-      </c>
-      <c r="B35">
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>50</v>
+      </c>
+      <c r="B35" s="10">
         <v>0.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="D35" s="10">
+        <v>25</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>13571</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3">
+        <v>13571</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>50</v>
-      </c>
-      <c r="B36">
+      <c r="I35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>50</v>
+      </c>
+      <c r="B36" s="10">
         <v>0.5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>13</v>
       </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="D36" s="10">
+        <v>25</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
         <v>13571</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3">
+        <v>13571</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>50</v>
-      </c>
-      <c r="B37">
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>50</v>
+      </c>
+      <c r="B37" s="10">
         <v>0.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>13</v>
       </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="D37" s="10">
+        <v>25</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3">
         <v>13571</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3">
+        <v>13571</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="I37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>100</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <v>0.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="10">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="D38" s="10">
+        <v>50</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
         <v>56257</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3">
+        <v>56257</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>100</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <v>0.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="10">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="D39" s="10">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="G39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>100</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="10">
         <v>0.5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="10">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>50</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="D40" s="10">
+        <v>50</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
         <v>52700</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3">
+        <v>52229</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>100</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="10">
         <v>0.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="10">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="10">
+        <v>50</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="G41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>100</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="10">
         <v>0.5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <v>12</v>
       </c>
-      <c r="D42">
-        <v>50</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="D42" s="10">
+        <v>50</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>52925</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3">
+        <v>52233</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="10">
+      <c r="J42" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>100</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="10">
         <v>0.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <v>12</v>
       </c>
-      <c r="D43">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="D43" s="10">
+        <v>50</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="G43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>100</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="10">
         <v>0.5</v>
       </c>
-      <c r="C44">
-        <v>25</v>
-      </c>
-      <c r="D44">
-        <v>50</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="C44" s="10">
+        <v>25</v>
+      </c>
+      <c r="D44" s="10">
+        <v>50</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
         <v>52925</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3">
+        <v>52233</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="10">
+      <c r="J44" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>100</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="10">
         <v>0.5</v>
       </c>
-      <c r="C45">
-        <v>25</v>
-      </c>
-      <c r="D45">
-        <v>50</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="C45" s="10">
+        <v>25</v>
+      </c>
+      <c r="D45" s="10">
+        <v>50</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="G45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>10</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="10">
         <v>0.9</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="10">
         <v>1</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="10">
         <v>5</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
         <v>1303</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="3">
+        <v>1303</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>10</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="10">
         <v>0.9</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="10">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="10">
         <v>5</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>1303</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="3">
+        <v>1303</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="I47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>10</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="10">
         <v>0.9</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="10">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="10">
         <v>5</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
         <v>852</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="3">
+        <v>852</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>10</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <v>0.9</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="10">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="10">
         <v>5</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>852</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3">
+        <v>852</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="I49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>10</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <v>0.9</v>
       </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
         <v>5</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
         <v>852</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="3">
+        <v>852</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>10</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>0.9</v>
       </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="10">
+        <v>3</v>
+      </c>
+      <c r="D51" s="10">
         <v>5</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3">
         <v>852</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="3">
+        <v>852</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
+      <c r="I51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10">
         <v>0.9</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="10">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>25</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="D52" s="10">
+        <v>25</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>15439</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="3">
+        <v>15439</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="B53">
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>50</v>
+      </c>
+      <c r="B53" s="10">
         <v>0.9</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="10">
         <v>2</v>
       </c>
-      <c r="D53">
-        <v>25</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="D53" s="10">
+        <v>25</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3">
         <v>15439</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3">
+        <v>15439</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>50</v>
-      </c>
-      <c r="B54">
+      <c r="I53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>50</v>
+      </c>
+      <c r="B54" s="10">
         <v>0.9</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="10">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="10">
+        <v>25</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
         <v>14535</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="3">
+        <v>14535</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>50</v>
-      </c>
-      <c r="B55">
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>50</v>
+      </c>
+      <c r="B55" s="10">
         <v>0.9</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="10">
         <v>4</v>
       </c>
-      <c r="D55">
-        <v>25</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="10">
+        <v>25</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="3">
         <v>14535</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56">
+      <c r="G55" s="3">
+        <v>14535</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>50</v>
+      </c>
+      <c r="B56" s="10">
         <v>0.9</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="10">
         <v>6</v>
       </c>
-      <c r="D56">
-        <v>25</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="D56" s="10">
+        <v>25</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
         <v>14515</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="3">
+        <v>14515</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>50</v>
-      </c>
-      <c r="B57">
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>50</v>
+      </c>
+      <c r="B57" s="10">
         <v>0.9</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="10">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>25</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="D57" s="10">
+        <v>25</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>14515</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="3">
+        <v>14515</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>50</v>
-      </c>
-      <c r="B58">
+      <c r="I57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>50</v>
+      </c>
+      <c r="B58" s="10">
         <v>0.9</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="10">
         <v>13</v>
       </c>
-      <c r="D58">
-        <v>25</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="D58" s="10">
+        <v>25</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>14515</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="3">
+        <v>14515</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>50</v>
-      </c>
-      <c r="B59">
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>50</v>
+      </c>
+      <c r="B59" s="10">
         <v>0.9</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="10">
         <v>13</v>
       </c>
-      <c r="D59">
-        <v>25</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="D59" s="10">
+        <v>25</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3">
         <v>14515</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="3">
+        <v>14515</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="I59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>100</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="10">
         <v>0.9</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="10">
         <v>2</v>
       </c>
-      <c r="D60">
-        <v>50</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D60" s="10">
+        <v>50</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
         <v>50915</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="3">
+        <v>46290</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>100</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="10">
         <v>0.9</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="10">
         <v>2</v>
       </c>
-      <c r="D61">
-        <v>50</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="D61" s="10">
+        <v>50</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="G61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>100</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="10">
         <v>0.9</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="10">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>50</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="D62" s="10">
+        <v>50</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>45635</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="3">
+        <v>45329</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="10">
+      <c r="J62" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>100</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="10">
         <v>0.9</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="10">
         <v>7</v>
       </c>
-      <c r="D63">
-        <v>50</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="D63" s="10">
+        <v>50</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="G63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
         <v>100</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="10">
         <v>0.9</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="10">
         <v>12</v>
       </c>
-      <c r="D64">
-        <v>50</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D64" s="10">
+        <v>50</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
         <v>45635</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="3">
+        <v>45329</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="10">
+      <c r="J64" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <v>100</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="10">
         <v>0.9</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="10">
         <v>12</v>
       </c>
-      <c r="D65">
-        <v>50</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="D65" s="10">
+        <v>50</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="G65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
         <v>100</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="10">
         <v>0.9</v>
       </c>
-      <c r="C66">
-        <v>25</v>
-      </c>
-      <c r="D66">
-        <v>50</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="C66" s="10">
+        <v>25</v>
+      </c>
+      <c r="D66" s="10">
+        <v>50</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
         <v>45635</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="13">
+        <v>45329</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I66" s="10">
+      <c r="J66" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
         <v>100</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="10">
         <v>0.9</v>
       </c>
-      <c r="C67">
-        <v>25</v>
-      </c>
-      <c r="D67">
-        <v>50</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="C67" s="10">
+        <v>25</v>
+      </c>
+      <c r="D67" s="10">
+        <v>50</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
